--- a/Analyse Dossier/Kostenanalyse Groep 20.xlsx
+++ b/Analyse Dossier/Kostenanalyse Groep 20.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Kosten" sheetId="1" r:id="rId1"/>
+    <sheet name="Inkomsten" sheetId="2" r:id="rId2"/>
+    <sheet name="Som" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Werkuren</t>
   </si>
@@ -32,9 +34,6 @@
     <t>Kantoorinrichting</t>
   </si>
   <si>
-    <t>Kosten voor jaar 1</t>
-  </si>
-  <si>
     <t>Huur kantoor</t>
   </si>
   <si>
@@ -48,6 +47,117 @@
   </si>
   <si>
     <t>Reclame</t>
+  </si>
+  <si>
+    <t>Som</t>
+  </si>
+  <si>
+    <t>Jaar 1</t>
+  </si>
+  <si>
+    <t>Inkomsten</t>
+  </si>
+  <si>
+    <t>Kosten</t>
+  </si>
+  <si>
+    <t>Totaal</t>
+  </si>
+  <si>
+    <t>Maand 1</t>
+  </si>
+  <si>
+    <t>Maand 2</t>
+  </si>
+  <si>
+    <t>Maand 3</t>
+  </si>
+  <si>
+    <t>Maand 4</t>
+  </si>
+  <si>
+    <t>Maand 5</t>
+  </si>
+  <si>
+    <t>Maand 6</t>
+  </si>
+  <si>
+    <t>Maand 7</t>
+  </si>
+  <si>
+    <t>Maand 8</t>
+  </si>
+  <si>
+    <t>Maand 9</t>
+  </si>
+  <si>
+    <t>Maand 10</t>
+  </si>
+  <si>
+    <t>Maand 11</t>
+  </si>
+  <si>
+    <t>Maand 12</t>
+  </si>
+  <si>
+    <t>Aantal actieve gebruikers</t>
+  </si>
+  <si>
+    <t>Aantal nieuwe gebruikers</t>
+  </si>
+  <si>
+    <t>Geschat aantal season pass</t>
+  </si>
+  <si>
+    <t>Waarde verkochte season pass</t>
+  </si>
+  <si>
+    <t>Geschat gemiddelde waarde microtransactions</t>
+  </si>
+  <si>
+    <t>Totale waarde microtransactions</t>
+  </si>
+  <si>
+    <t>Totale verwachte inkomsten</t>
+  </si>
+  <si>
+    <t>Jaar 2</t>
+  </si>
+  <si>
+    <t>Maand 13</t>
+  </si>
+  <si>
+    <t>Maand 14</t>
+  </si>
+  <si>
+    <t>Maand 15</t>
+  </si>
+  <si>
+    <t>Maand 16</t>
+  </si>
+  <si>
+    <t>Maand 17</t>
+  </si>
+  <si>
+    <t>Maand 18</t>
+  </si>
+  <si>
+    <t>Maand 19</t>
+  </si>
+  <si>
+    <t>Maand 20</t>
+  </si>
+  <si>
+    <t>Maand 21</t>
+  </si>
+  <si>
+    <t>Maand 22</t>
+  </si>
+  <si>
+    <t>Maand 23</t>
+  </si>
+  <si>
+    <t>Maand 24</t>
   </si>
 </sst>
 </file>
@@ -81,11 +191,20 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -94,9 +213,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -412,78 +536,939 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>86400</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>5000</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <f>1500*12</f>
         <v>18000</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <f>150 *12</f>
         <v>1800</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <f>20*10</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <f>100*4*12</f>
         <v>4800</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="1">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <f>SUM(B2:B8)</f>
+        <v>117200</v>
+      </c>
+      <c r="C9" s="6">
+        <f>SUM(C2:C8)</f>
+        <v>77700</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y9"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="25" width="11.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>400</v>
+      </c>
+      <c r="E2">
+        <v>700</v>
+      </c>
+      <c r="F2">
+        <v>1100</v>
+      </c>
+      <c r="G2">
+        <v>1500</v>
+      </c>
+      <c r="H2">
+        <v>2000</v>
+      </c>
+      <c r="I2">
+        <v>2600</v>
+      </c>
+      <c r="J2">
+        <v>3500</v>
+      </c>
+      <c r="K2">
+        <v>4500</v>
+      </c>
+      <c r="L2">
+        <v>5600</v>
+      </c>
+      <c r="M2">
+        <v>6800</v>
+      </c>
+      <c r="N2">
+        <v>8000</v>
+      </c>
+      <c r="O2">
+        <v>8300</v>
+      </c>
+      <c r="P2">
+        <v>8200</v>
+      </c>
+      <c r="Q2">
+        <v>8100</v>
+      </c>
+      <c r="R2">
+        <v>8000</v>
+      </c>
+      <c r="S2">
+        <v>8000</v>
+      </c>
+      <c r="T2">
+        <v>7800</v>
+      </c>
+      <c r="U2">
+        <v>7500</v>
+      </c>
+      <c r="V2">
+        <v>7100</v>
+      </c>
+      <c r="W2">
+        <v>6500</v>
+      </c>
+      <c r="X2">
+        <v>6300</v>
+      </c>
+      <c r="Y2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <f>0.45*(SUM(B2))</f>
+        <v>45</v>
+      </c>
+      <c r="C3" s="5">
+        <f>0.45*C2+0.45*B3</f>
+        <v>110.25</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:M3" si="0">0.45*D2+0.45*C3</f>
+        <v>229.61250000000001</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" si="0"/>
+        <v>418.325625</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" si="0"/>
+        <v>683.24653124999998</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" si="0"/>
+        <v>982.46093906250007</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" si="0"/>
+        <v>1342.1074225781251</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" si="0"/>
+        <v>1773.9483401601565</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" si="0"/>
+        <v>2373.2767530720703</v>
+      </c>
+      <c r="K3" s="5">
+        <f t="shared" si="0"/>
+        <v>3092.9745388824317</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" si="0"/>
+        <v>3911.8385424970943</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" si="0"/>
+        <v>4820.3273441236925</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" ref="N3" si="1">0.45*N2+0.45*M3</f>
+        <v>5769.1473048556618</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" ref="O3" si="2">0.45*O2+0.45*N3</f>
+        <v>6331.1162871850483</v>
+      </c>
+      <c r="P3" s="5">
+        <f t="shared" ref="P3" si="3">0.45*P2+0.45*O3</f>
+        <v>6539.0023292332717</v>
+      </c>
+      <c r="Q3" s="5">
+        <f t="shared" ref="Q3" si="4">0.45*Q2+0.45*P3</f>
+        <v>6587.5510481549718</v>
+      </c>
+      <c r="R3" s="5">
+        <f t="shared" ref="R3" si="5">0.45*R2+0.45*Q3</f>
+        <v>6564.3979716697377</v>
+      </c>
+      <c r="S3" s="5">
+        <f t="shared" ref="S3" si="6">0.45*S2+0.45*R3</f>
+        <v>6553.9790872513822</v>
+      </c>
+      <c r="T3" s="5">
+        <f t="shared" ref="T3" si="7">0.45*T2+0.45*S3</f>
+        <v>6459.2905892631225</v>
+      </c>
+      <c r="U3" s="5">
+        <f t="shared" ref="U3" si="8">0.45*U2+0.45*T3</f>
+        <v>6281.6807651684048</v>
+      </c>
+      <c r="V3" s="5">
+        <f t="shared" ref="V3" si="9">0.45*V2+0.45*U3</f>
+        <v>6021.7563443257823</v>
+      </c>
+      <c r="W3" s="5">
+        <f t="shared" ref="W3" si="10">0.45*W2+0.45*V3</f>
+        <v>5634.7903549466027</v>
+      </c>
+      <c r="X3" s="5">
+        <f t="shared" ref="X3" si="11">0.45*X2+0.45*W3</f>
+        <v>5370.6556597259714</v>
+      </c>
+      <c r="Y3" s="5">
+        <f t="shared" ref="Y3" si="12">0.45*Y2+0.45*X3</f>
+        <v>5116.7950468766867</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5">
+        <f>0.05*B3</f>
+        <v>2.25</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" ref="C4:M4" si="13">0.05*C3</f>
+        <v>5.5125000000000002</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="13"/>
+        <v>11.480625000000002</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="13"/>
+        <v>20.916281250000001</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="13"/>
+        <v>34.162326562499999</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="13"/>
+        <v>49.123046953125005</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="13"/>
+        <v>67.105371128906256</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="13"/>
+        <v>88.697417008007832</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="13"/>
+        <v>118.66383765360352</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" si="13"/>
+        <v>154.64872694412159</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="13"/>
+        <v>195.59192712485472</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" si="13"/>
+        <v>241.01636720618464</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" ref="N4" si="14">0.05*N3</f>
+        <v>288.45736524278311</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" ref="O4" si="15">0.05*O3</f>
+        <v>316.55581435925245</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" ref="P4" si="16">0.05*P3</f>
+        <v>326.95011646166358</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" ref="Q4" si="17">0.05*Q3</f>
+        <v>329.37755240774862</v>
+      </c>
+      <c r="R4" s="5">
+        <f t="shared" ref="R4" si="18">0.05*R3</f>
+        <v>328.21989858348689</v>
+      </c>
+      <c r="S4" s="5">
+        <f t="shared" ref="S4" si="19">0.05*S3</f>
+        <v>327.69895436256911</v>
+      </c>
+      <c r="T4" s="5">
+        <f t="shared" ref="T4" si="20">0.05*T3</f>
+        <v>322.96452946315617</v>
+      </c>
+      <c r="U4" s="5">
+        <f t="shared" ref="U4" si="21">0.05*U3</f>
+        <v>314.08403825842026</v>
+      </c>
+      <c r="V4" s="5">
+        <f t="shared" ref="V4" si="22">0.05*V3</f>
+        <v>301.08781721628912</v>
+      </c>
+      <c r="W4" s="5">
+        <f t="shared" ref="W4" si="23">0.05*W3</f>
+        <v>281.73951774733013</v>
+      </c>
+      <c r="X4" s="5">
+        <f t="shared" ref="X4" si="24">0.05*X3</f>
+        <v>268.53278298629857</v>
+      </c>
+      <c r="Y4" s="5">
+        <f t="shared" ref="Y4" si="25">0.05*Y3</f>
+        <v>255.83975234383433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1">
+        <f>ROUND(B4,0)*15</f>
+        <v>30</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ref="C5:M5" si="26">ROUND(C4,0)*15</f>
+        <v>90</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="26"/>
+        <v>165</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="26"/>
+        <v>315</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="26"/>
+        <v>510</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="26"/>
+        <v>735</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="26"/>
+        <v>1005</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="26"/>
+        <v>1335</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="26"/>
+        <v>1785</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="26"/>
+        <v>2325</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="26"/>
+        <v>2940</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="26"/>
+        <v>3615</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" ref="N5" si="27">ROUND(N4,0)*15</f>
+        <v>4320</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" ref="O5" si="28">ROUND(O4,0)*15</f>
+        <v>4755</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" ref="P5" si="29">ROUND(P4,0)*15</f>
+        <v>4905</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" ref="Q5" si="30">ROUND(Q4,0)*15</f>
+        <v>4935</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" ref="R5" si="31">ROUND(R4,0)*15</f>
+        <v>4920</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" ref="S5" si="32">ROUND(S4,0)*15</f>
+        <v>4920</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" ref="T5" si="33">ROUND(T4,0)*15</f>
+        <v>4845</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" ref="U5" si="34">ROUND(U4,0)*15</f>
+        <v>4710</v>
+      </c>
+      <c r="V5" s="1">
+        <f t="shared" ref="V5" si="35">ROUND(V4,0)*15</f>
+        <v>4515</v>
+      </c>
+      <c r="W5" s="1">
+        <f t="shared" ref="W5" si="36">ROUND(W4,0)*15</f>
+        <v>4230</v>
+      </c>
+      <c r="X5" s="1">
+        <f t="shared" ref="X5" si="37">ROUND(X4,0)*15</f>
+        <v>4035</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" ref="Y5" si="38">ROUND(Y4,0)*15</f>
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="X6">
+        <v>2</v>
+      </c>
+      <c r="Y6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1">
+        <f>ROUND(B6,0)*B3</f>
+        <v>90</v>
+      </c>
+      <c r="C7" s="1">
+        <f>ROUND(C6,0)*C3</f>
+        <v>220.5</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="C7:M7" si="39">ROUND(D6,0)*D3</f>
+        <v>459.22500000000002</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="39"/>
+        <v>836.65125</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="39"/>
+        <v>1366.4930625</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="39"/>
+        <v>1964.9218781250001</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="39"/>
+        <v>2684.2148451562502</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="39"/>
+        <v>3547.896680320313</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="39"/>
+        <v>4746.5535061441406</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="39"/>
+        <v>6185.9490777648634</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="39"/>
+        <v>7823.6770849941886</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="39"/>
+        <v>9640.6546882473849</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" ref="N7" si="40">ROUND(N6,0)*N3</f>
+        <v>11538.294609711324</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" ref="O7" si="41">ROUND(O6,0)*O3</f>
+        <v>12662.232574370097</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" ref="P7" si="42">ROUND(P6,0)*P3</f>
+        <v>13078.004658466543</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" ref="Q7" si="43">ROUND(Q6,0)*Q3</f>
+        <v>13175.102096309944</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" ref="R7" si="44">ROUND(R6,0)*R3</f>
+        <v>13128.795943339475</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" ref="S7" si="45">ROUND(S6,0)*S3</f>
+        <v>13107.958174502764</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" ref="T7" si="46">ROUND(T6,0)*T3</f>
+        <v>12918.581178526245</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" ref="U7" si="47">ROUND(U6,0)*U3</f>
+        <v>12563.36153033681</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" ref="V7" si="48">ROUND(V6,0)*V3</f>
+        <v>12043.512688651565</v>
+      </c>
+      <c r="W7" s="1">
+        <f t="shared" ref="W7" si="49">ROUND(W6,0)*W3</f>
+        <v>11269.580709893205</v>
+      </c>
+      <c r="X7" s="1">
+        <f t="shared" ref="X7" si="50">ROUND(X6,0)*X3</f>
+        <v>10741.311319451943</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" ref="Y7" si="51">ROUND(Y6,0)*Y3</f>
+        <v>10233.590093753373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1">
+        <f>B7+B5</f>
+        <v>120</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" ref="C9:Y9" si="52">C7+C5</f>
+        <v>310.5</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="52"/>
+        <v>624.22500000000002</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="52"/>
+        <v>1151.6512499999999</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="52"/>
+        <v>1876.4930625</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="52"/>
+        <v>2699.9218781250001</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="52"/>
+        <v>3689.2148451562502</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="52"/>
+        <v>4882.896680320313</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="52"/>
+        <v>6531.5535061441406</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="52"/>
+        <v>8510.9490777648643</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="52"/>
+        <v>10763.677084994189</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="52"/>
+        <v>13255.654688247385</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="52"/>
+        <v>15858.294609711324</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="52"/>
+        <v>17417.232574370097</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="52"/>
+        <v>17983.004658466543</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="52"/>
+        <v>18110.102096309944</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="52"/>
+        <v>18048.795943339475</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="52"/>
+        <v>18027.958174502764</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="52"/>
+        <v>17763.581178526245</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="52"/>
+        <v>17273.36153033681</v>
+      </c>
+      <c r="V9" s="1">
+        <f t="shared" si="52"/>
+        <v>16558.512688651565</v>
+      </c>
+      <c r="W9" s="1">
+        <f t="shared" si="52"/>
+        <v>15499.580709893205</v>
+      </c>
+      <c r="X9" s="1">
+        <f t="shared" si="52"/>
+        <v>14776.311319451943</v>
+      </c>
+      <c r="Y9" s="1">
+        <f t="shared" si="52"/>
+        <v>14073.590093753373</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4">
+        <f>SUM(Inkomsten!B9:M9)</f>
+        <v>54416.737073252145</v>
+      </c>
+      <c r="C2" s="4">
+        <f>SUM(Inkomsten!M9:'Inkomsten'!Y9)</f>
+        <v>214645.98026556068</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
+        <f>Kosten!B9</f>
+        <v>117200</v>
+      </c>
+      <c r="C3" s="4">
+        <f>Kosten!C9</f>
+        <v>77700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3">
+        <f>B2-B3</f>
+        <v>-62783.262926747855</v>
+      </c>
+      <c r="C4" s="3">
+        <f>C2-C3</f>
+        <v>136945.98026556068</v>
       </c>
     </row>
   </sheetData>

--- a/Analyse Dossier/Kostenanalyse Groep 20.xlsx
+++ b/Analyse Dossier/Kostenanalyse Groep 20.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
-  <si>
-    <t>Werkuren</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>Kantoorinrichting</t>
   </si>
@@ -158,6 +155,30 @@
   </si>
   <si>
     <t>Maand 24</t>
+  </si>
+  <si>
+    <t>Werkuren development</t>
+  </si>
+  <si>
+    <t>Werkuren onderhoud</t>
+  </si>
+  <si>
+    <t>Aankopen hardware</t>
+  </si>
+  <si>
+    <t>Licenties</t>
+  </si>
+  <si>
+    <t>Maand 25</t>
+  </si>
+  <si>
+    <t>Maand 26</t>
+  </si>
+  <si>
+    <t>Maand 27</t>
+  </si>
+  <si>
+    <t>Maand 28</t>
   </si>
 </sst>
 </file>
@@ -213,7 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -221,6 +242,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -536,117 +558,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C3" sqref="C3:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1">
         <v>86400</v>
       </c>
-      <c r="C2" s="1">
-        <v>50000</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1">
-        <v>5000</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>40000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>50000</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1">
+        <f>7500</f>
+        <v>7500</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
         <f>1500*12</f>
         <v>18000</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C6" s="1">
         <v>18000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
         <f>150 *12</f>
         <v>1800</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C7" s="1">
         <v>2500</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
         <f>20*10</f>
         <v>200</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C8" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
         <f>100*4*12</f>
         <v>4800</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C9" s="1">
         <v>4800</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1">
+        <v>200</v>
+      </c>
+      <c r="C11" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <f>SUM(B2:B8)</f>
-        <v>117200</v>
-      </c>
-      <c r="C9" s="6">
-        <f>SUM(C2:C8)</f>
-        <v>77700</v>
+      <c r="B22" s="3">
+        <f>SUM(B2:B10)</f>
+        <v>164700</v>
+      </c>
+      <c r="C22" s="6">
+        <f>SUM(C3:C11)</f>
+        <v>78900</v>
       </c>
     </row>
   </sheetData>
@@ -656,10 +709,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,739 +720,851 @@
     <col min="1" max="1" width="39.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="11" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="25" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="29" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" t="s">
-        <v>23</v>
-      </c>
       <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>33</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>35</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>36</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>37</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>38</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>39</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>40</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>41</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>100</v>
       </c>
-      <c r="C2">
+      <c r="G2">
         <v>200</v>
       </c>
-      <c r="D2">
+      <c r="H2">
         <v>400</v>
       </c>
-      <c r="E2">
+      <c r="I2">
         <v>700</v>
       </c>
-      <c r="F2">
+      <c r="J2">
         <v>1100</v>
       </c>
-      <c r="G2">
+      <c r="K2">
         <v>1500</v>
       </c>
-      <c r="H2">
+      <c r="L2">
         <v>2000</v>
       </c>
-      <c r="I2">
+      <c r="M2">
         <v>2600</v>
       </c>
-      <c r="J2">
+      <c r="N2">
         <v>3500</v>
       </c>
-      <c r="K2">
+      <c r="O2">
         <v>4500</v>
       </c>
-      <c r="L2">
+      <c r="P2">
         <v>5600</v>
       </c>
-      <c r="M2">
+      <c r="Q2">
         <v>6800</v>
-      </c>
-      <c r="N2">
-        <v>8000</v>
-      </c>
-      <c r="O2">
-        <v>8300</v>
-      </c>
-      <c r="P2">
-        <v>8200</v>
-      </c>
-      <c r="Q2">
-        <v>8100</v>
       </c>
       <c r="R2">
         <v>8000</v>
       </c>
       <c r="S2">
+        <v>8300</v>
+      </c>
+      <c r="T2">
+        <v>8200</v>
+      </c>
+      <c r="U2">
+        <v>8100</v>
+      </c>
+      <c r="V2">
         <v>8000</v>
       </c>
-      <c r="T2">
+      <c r="W2">
+        <v>8000</v>
+      </c>
+      <c r="X2">
         <v>7800</v>
       </c>
-      <c r="U2">
+      <c r="Y2">
         <v>7500</v>
       </c>
-      <c r="V2">
+      <c r="Z2">
         <v>7100</v>
       </c>
-      <c r="W2">
+      <c r="AA2">
         <v>6500</v>
       </c>
-      <c r="X2">
+      <c r="AB2">
         <v>6300</v>
       </c>
-      <c r="Y2">
+      <c r="AC2">
         <v>6000</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3">
-        <f>0.45*(SUM(B2))</f>
+        <f t="shared" ref="B3:E3" si="0">0.45*(SUM(B2))</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>0.45*(SUM(F2))</f>
         <v>45</v>
       </c>
-      <c r="C3" s="5">
-        <f>0.45*C2+0.45*B3</f>
+      <c r="G3" s="5">
+        <f>0.45*G2+0.45*F3</f>
         <v>110.25</v>
       </c>
-      <c r="D3" s="5">
-        <f t="shared" ref="D3:M3" si="0">0.45*D2+0.45*C3</f>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:Q3" si="1">0.45*H2+0.45*G3</f>
         <v>229.61250000000001</v>
       </c>
-      <c r="E3" s="5">
-        <f t="shared" si="0"/>
+      <c r="I3" s="5">
+        <f t="shared" si="1"/>
         <v>418.325625</v>
       </c>
-      <c r="F3" s="5">
-        <f t="shared" si="0"/>
+      <c r="J3" s="5">
+        <f t="shared" si="1"/>
         <v>683.24653124999998</v>
       </c>
-      <c r="G3" s="5">
-        <f t="shared" si="0"/>
+      <c r="K3" s="5">
+        <f t="shared" si="1"/>
         <v>982.46093906250007</v>
       </c>
-      <c r="H3" s="5">
-        <f t="shared" si="0"/>
+      <c r="L3" s="5">
+        <f t="shared" si="1"/>
         <v>1342.1074225781251</v>
       </c>
-      <c r="I3" s="5">
-        <f t="shared" si="0"/>
+      <c r="M3" s="5">
+        <f t="shared" si="1"/>
         <v>1773.9483401601565</v>
       </c>
-      <c r="J3" s="5">
-        <f t="shared" si="0"/>
+      <c r="N3" s="5">
+        <f t="shared" si="1"/>
         <v>2373.2767530720703</v>
       </c>
-      <c r="K3" s="5">
-        <f t="shared" si="0"/>
+      <c r="O3" s="5">
+        <f t="shared" si="1"/>
         <v>3092.9745388824317</v>
       </c>
-      <c r="L3" s="5">
-        <f t="shared" si="0"/>
+      <c r="P3" s="5">
+        <f t="shared" si="1"/>
         <v>3911.8385424970943</v>
       </c>
-      <c r="M3" s="5">
-        <f t="shared" si="0"/>
+      <c r="Q3" s="5">
+        <f t="shared" si="1"/>
         <v>4820.3273441236925</v>
       </c>
-      <c r="N3" s="5">
-        <f t="shared" ref="N3" si="1">0.45*N2+0.45*M3</f>
+      <c r="R3" s="5">
+        <f t="shared" ref="R3" si="2">0.45*R2+0.45*Q3</f>
         <v>5769.1473048556618</v>
       </c>
-      <c r="O3" s="5">
-        <f t="shared" ref="O3" si="2">0.45*O2+0.45*N3</f>
+      <c r="S3" s="5">
+        <f t="shared" ref="S3" si="3">0.45*S2+0.45*R3</f>
         <v>6331.1162871850483</v>
       </c>
-      <c r="P3" s="5">
-        <f t="shared" ref="P3" si="3">0.45*P2+0.45*O3</f>
+      <c r="T3" s="5">
+        <f t="shared" ref="T3" si="4">0.45*T2+0.45*S3</f>
         <v>6539.0023292332717</v>
       </c>
-      <c r="Q3" s="5">
-        <f t="shared" ref="Q3" si="4">0.45*Q2+0.45*P3</f>
+      <c r="U3" s="5">
+        <f t="shared" ref="U3" si="5">0.45*U2+0.45*T3</f>
         <v>6587.5510481549718</v>
       </c>
-      <c r="R3" s="5">
-        <f t="shared" ref="R3" si="5">0.45*R2+0.45*Q3</f>
+      <c r="V3" s="5">
+        <f t="shared" ref="V3" si="6">0.45*V2+0.45*U3</f>
         <v>6564.3979716697377</v>
       </c>
-      <c r="S3" s="5">
-        <f t="shared" ref="S3" si="6">0.45*S2+0.45*R3</f>
+      <c r="W3" s="5">
+        <f t="shared" ref="W3" si="7">0.45*W2+0.45*V3</f>
         <v>6553.9790872513822</v>
       </c>
-      <c r="T3" s="5">
-        <f t="shared" ref="T3" si="7">0.45*T2+0.45*S3</f>
+      <c r="X3" s="5">
+        <f t="shared" ref="X3" si="8">0.45*X2+0.45*W3</f>
         <v>6459.2905892631225</v>
       </c>
-      <c r="U3" s="5">
-        <f t="shared" ref="U3" si="8">0.45*U2+0.45*T3</f>
+      <c r="Y3" s="5">
+        <f t="shared" ref="Y3" si="9">0.45*Y2+0.45*X3</f>
         <v>6281.6807651684048</v>
       </c>
-      <c r="V3" s="5">
-        <f t="shared" ref="V3" si="9">0.45*V2+0.45*U3</f>
+      <c r="Z3" s="5">
+        <f t="shared" ref="Z3" si="10">0.45*Z2+0.45*Y3</f>
         <v>6021.7563443257823</v>
       </c>
-      <c r="W3" s="5">
-        <f t="shared" ref="W3" si="10">0.45*W2+0.45*V3</f>
+      <c r="AA3" s="5">
+        <f t="shared" ref="AA3" si="11">0.45*AA2+0.45*Z3</f>
         <v>5634.7903549466027</v>
       </c>
-      <c r="X3" s="5">
-        <f t="shared" ref="X3" si="11">0.45*X2+0.45*W3</f>
+      <c r="AB3" s="5">
+        <f t="shared" ref="AB3" si="12">0.45*AB2+0.45*AA3</f>
         <v>5370.6556597259714</v>
       </c>
-      <c r="Y3" s="5">
-        <f t="shared" ref="Y3" si="12">0.45*Y2+0.45*X3</f>
+      <c r="AC3" s="5">
+        <f t="shared" ref="AC3" si="13">0.45*AC2+0.45*AB3</f>
         <v>5116.7950468766867</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="5">
+        <f t="shared" ref="B4:E4" si="14">0.05*B3</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <f>0.05*F3</f>
+        <v>2.25</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" ref="G4:Q4" si="15">0.05*G3</f>
+        <v>5.5125000000000002</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="15"/>
+        <v>11.480625000000002</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="15"/>
+        <v>20.916281250000001</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="15"/>
+        <v>34.162326562499999</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" si="15"/>
+        <v>49.123046953125005</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="15"/>
+        <v>67.105371128906256</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" si="15"/>
+        <v>88.697417008007832</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" si="15"/>
+        <v>118.66383765360352</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" si="15"/>
+        <v>154.64872694412159</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" si="15"/>
+        <v>195.59192712485472</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" si="15"/>
+        <v>241.01636720618464</v>
+      </c>
+      <c r="R4" s="5">
+        <f t="shared" ref="R4" si="16">0.05*R3</f>
+        <v>288.45736524278311</v>
+      </c>
+      <c r="S4" s="5">
+        <f t="shared" ref="S4" si="17">0.05*S3</f>
+        <v>316.55581435925245</v>
+      </c>
+      <c r="T4" s="5">
+        <f t="shared" ref="T4" si="18">0.05*T3</f>
+        <v>326.95011646166358</v>
+      </c>
+      <c r="U4" s="5">
+        <f t="shared" ref="U4" si="19">0.05*U3</f>
+        <v>329.37755240774862</v>
+      </c>
+      <c r="V4" s="5">
+        <f t="shared" ref="V4" si="20">0.05*V3</f>
+        <v>328.21989858348689</v>
+      </c>
+      <c r="W4" s="5">
+        <f t="shared" ref="W4" si="21">0.05*W3</f>
+        <v>327.69895436256911</v>
+      </c>
+      <c r="X4" s="5">
+        <f t="shared" ref="X4" si="22">0.05*X3</f>
+        <v>322.96452946315617</v>
+      </c>
+      <c r="Y4" s="5">
+        <f t="shared" ref="Y4" si="23">0.05*Y3</f>
+        <v>314.08403825842026</v>
+      </c>
+      <c r="Z4" s="5">
+        <f t="shared" ref="Z4" si="24">0.05*Z3</f>
+        <v>301.08781721628912</v>
+      </c>
+      <c r="AA4" s="5">
+        <f t="shared" ref="AA4" si="25">0.05*AA3</f>
+        <v>281.73951774733013</v>
+      </c>
+      <c r="AB4" s="5">
+        <f t="shared" ref="AB4" si="26">0.05*AB3</f>
+        <v>268.53278298629857</v>
+      </c>
+      <c r="AC4" s="5">
+        <f t="shared" ref="AC4" si="27">0.05*AC3</f>
+        <v>255.83975234383433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="5">
-        <f>0.05*B3</f>
-        <v>2.25</v>
-      </c>
-      <c r="C4" s="5">
-        <f t="shared" ref="C4:M4" si="13">0.05*C3</f>
-        <v>5.5125000000000002</v>
-      </c>
-      <c r="D4" s="5">
-        <f t="shared" si="13"/>
-        <v>11.480625000000002</v>
-      </c>
-      <c r="E4" s="5">
-        <f t="shared" si="13"/>
-        <v>20.916281250000001</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" si="13"/>
-        <v>34.162326562499999</v>
-      </c>
-      <c r="G4" s="5">
-        <f t="shared" si="13"/>
-        <v>49.123046953125005</v>
-      </c>
-      <c r="H4" s="5">
-        <f t="shared" si="13"/>
-        <v>67.105371128906256</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" si="13"/>
-        <v>88.697417008007832</v>
-      </c>
-      <c r="J4" s="5">
-        <f t="shared" si="13"/>
-        <v>118.66383765360352</v>
-      </c>
-      <c r="K4" s="5">
-        <f t="shared" si="13"/>
-        <v>154.64872694412159</v>
-      </c>
-      <c r="L4" s="5">
-        <f t="shared" si="13"/>
-        <v>195.59192712485472</v>
-      </c>
-      <c r="M4" s="5">
-        <f t="shared" si="13"/>
-        <v>241.01636720618464</v>
-      </c>
-      <c r="N4" s="5">
-        <f t="shared" ref="N4" si="14">0.05*N3</f>
-        <v>288.45736524278311</v>
-      </c>
-      <c r="O4" s="5">
-        <f t="shared" ref="O4" si="15">0.05*O3</f>
-        <v>316.55581435925245</v>
-      </c>
-      <c r="P4" s="5">
-        <f t="shared" ref="P4" si="16">0.05*P3</f>
-        <v>326.95011646166358</v>
-      </c>
-      <c r="Q4" s="5">
-        <f t="shared" ref="Q4" si="17">0.05*Q3</f>
-        <v>329.37755240774862</v>
-      </c>
-      <c r="R4" s="5">
-        <f t="shared" ref="R4" si="18">0.05*R3</f>
-        <v>328.21989858348689</v>
-      </c>
-      <c r="S4" s="5">
-        <f t="shared" ref="S4" si="19">0.05*S3</f>
-        <v>327.69895436256911</v>
-      </c>
-      <c r="T4" s="5">
-        <f t="shared" ref="T4" si="20">0.05*T3</f>
-        <v>322.96452946315617</v>
-      </c>
-      <c r="U4" s="5">
-        <f t="shared" ref="U4" si="21">0.05*U3</f>
-        <v>314.08403825842026</v>
-      </c>
-      <c r="V4" s="5">
-        <f t="shared" ref="V4" si="22">0.05*V3</f>
-        <v>301.08781721628912</v>
-      </c>
-      <c r="W4" s="5">
-        <f t="shared" ref="W4" si="23">0.05*W3</f>
-        <v>281.73951774733013</v>
-      </c>
-      <c r="X4" s="5">
-        <f t="shared" ref="X4" si="24">0.05*X3</f>
-        <v>268.53278298629857</v>
-      </c>
-      <c r="Y4" s="5">
-        <f t="shared" ref="Y4" si="25">0.05*Y3</f>
-        <v>255.83975234383433</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" s="1">
+        <f t="shared" ref="B5:E5" si="28">ROUND(B4,0)*15</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <f>ROUND(F4,0)*15</f>
+        <v>30</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:Q5" si="29">ROUND(G4,0)*15</f>
+        <v>90</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="29"/>
+        <v>165</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="29"/>
+        <v>315</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="29"/>
+        <v>510</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="29"/>
+        <v>735</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="29"/>
+        <v>1005</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="29"/>
+        <v>1335</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="29"/>
+        <v>1785</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="29"/>
+        <v>2325</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="29"/>
+        <v>2940</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="29"/>
+        <v>3615</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" ref="R5" si="30">ROUND(R4,0)*15</f>
+        <v>4320</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" ref="S5" si="31">ROUND(S4,0)*15</f>
+        <v>4755</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" ref="T5" si="32">ROUND(T4,0)*15</f>
+        <v>4905</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" ref="U5" si="33">ROUND(U4,0)*15</f>
+        <v>4935</v>
+      </c>
+      <c r="V5" s="1">
+        <f t="shared" ref="V5" si="34">ROUND(V4,0)*15</f>
+        <v>4920</v>
+      </c>
+      <c r="W5" s="1">
+        <f t="shared" ref="W5" si="35">ROUND(W4,0)*15</f>
+        <v>4920</v>
+      </c>
+      <c r="X5" s="1">
+        <f t="shared" ref="X5" si="36">ROUND(X4,0)*15</f>
+        <v>4845</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" ref="Y5" si="37">ROUND(Y4,0)*15</f>
+        <v>4710</v>
+      </c>
+      <c r="Z5" s="1">
+        <f t="shared" ref="Z5" si="38">ROUND(Z4,0)*15</f>
+        <v>4515</v>
+      </c>
+      <c r="AA5" s="1">
+        <f t="shared" ref="AA5" si="39">ROUND(AA4,0)*15</f>
+        <v>4230</v>
+      </c>
+      <c r="AB5" s="1">
+        <f t="shared" ref="AB5" si="40">ROUND(AB4,0)*15</f>
+        <v>4035</v>
+      </c>
+      <c r="AC5" s="1">
+        <f t="shared" ref="AC5" si="41">ROUND(AC4,0)*15</f>
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="1">
-        <f>ROUND(B4,0)*15</f>
-        <v>30</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" ref="C5:M5" si="26">ROUND(C4,0)*15</f>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="X6">
+        <v>2</v>
+      </c>
+      <c r="Y6">
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <v>2</v>
+      </c>
+      <c r="AA6">
+        <v>2</v>
+      </c>
+      <c r="AB6">
+        <v>2</v>
+      </c>
+      <c r="AC6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <f>ROUND(F6,0)*F3</f>
         <v>90</v>
       </c>
-      <c r="D5" s="1">
-        <f t="shared" si="26"/>
-        <v>165</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="26"/>
-        <v>315</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="26"/>
-        <v>510</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="26"/>
-        <v>735</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="26"/>
-        <v>1005</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="26"/>
-        <v>1335</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="26"/>
-        <v>1785</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="26"/>
-        <v>2325</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" si="26"/>
-        <v>2940</v>
-      </c>
-      <c r="M5" s="1">
-        <f t="shared" si="26"/>
-        <v>3615</v>
-      </c>
-      <c r="N5" s="1">
-        <f t="shared" ref="N5" si="27">ROUND(N4,0)*15</f>
-        <v>4320</v>
-      </c>
-      <c r="O5" s="1">
-        <f t="shared" ref="O5" si="28">ROUND(O4,0)*15</f>
-        <v>4755</v>
-      </c>
-      <c r="P5" s="1">
-        <f t="shared" ref="P5" si="29">ROUND(P4,0)*15</f>
-        <v>4905</v>
-      </c>
-      <c r="Q5" s="1">
-        <f t="shared" ref="Q5" si="30">ROUND(Q4,0)*15</f>
-        <v>4935</v>
-      </c>
-      <c r="R5" s="1">
-        <f t="shared" ref="R5" si="31">ROUND(R4,0)*15</f>
-        <v>4920</v>
-      </c>
-      <c r="S5" s="1">
-        <f t="shared" ref="S5" si="32">ROUND(S4,0)*15</f>
-        <v>4920</v>
-      </c>
-      <c r="T5" s="1">
-        <f t="shared" ref="T5" si="33">ROUND(T4,0)*15</f>
-        <v>4845</v>
-      </c>
-      <c r="U5" s="1">
-        <f t="shared" ref="U5" si="34">ROUND(U4,0)*15</f>
-        <v>4710</v>
-      </c>
-      <c r="V5" s="1">
-        <f t="shared" ref="V5" si="35">ROUND(V4,0)*15</f>
-        <v>4515</v>
-      </c>
-      <c r="W5" s="1">
-        <f t="shared" ref="W5" si="36">ROUND(W4,0)*15</f>
-        <v>4230</v>
-      </c>
-      <c r="X5" s="1">
-        <f t="shared" ref="X5" si="37">ROUND(X4,0)*15</f>
-        <v>4035</v>
-      </c>
-      <c r="Y5" s="1">
-        <f t="shared" ref="Y5" si="38">ROUND(Y4,0)*15</f>
-        <v>3840</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
-      <c r="O6">
-        <v>2</v>
-      </c>
-      <c r="P6">
-        <v>2</v>
-      </c>
-      <c r="Q6">
-        <v>2</v>
-      </c>
-      <c r="R6">
-        <v>2</v>
-      </c>
-      <c r="S6">
-        <v>2</v>
-      </c>
-      <c r="T6">
-        <v>2</v>
-      </c>
-      <c r="U6">
-        <v>2</v>
-      </c>
-      <c r="V6">
-        <v>2</v>
-      </c>
-      <c r="W6">
-        <v>2</v>
-      </c>
-      <c r="X6">
-        <v>2</v>
-      </c>
-      <c r="Y6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="G7" s="1">
+        <f>ROUND(G6,0)*G3</f>
+        <v>220.5</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" ref="H7:Q7" si="42">ROUND(H6,0)*H3</f>
+        <v>459.22500000000002</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="42"/>
+        <v>836.65125</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="42"/>
+        <v>1366.4930625</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="42"/>
+        <v>1964.9218781250001</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="42"/>
+        <v>2684.2148451562502</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="42"/>
+        <v>3547.896680320313</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="42"/>
+        <v>4746.5535061441406</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="42"/>
+        <v>6185.9490777648634</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="42"/>
+        <v>7823.6770849941886</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="42"/>
+        <v>9640.6546882473849</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" ref="R7" si="43">ROUND(R6,0)*R3</f>
+        <v>11538.294609711324</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" ref="S7" si="44">ROUND(S6,0)*S3</f>
+        <v>12662.232574370097</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" ref="T7" si="45">ROUND(T6,0)*T3</f>
+        <v>13078.004658466543</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" ref="U7" si="46">ROUND(U6,0)*U3</f>
+        <v>13175.102096309944</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" ref="V7" si="47">ROUND(V6,0)*V3</f>
+        <v>13128.795943339475</v>
+      </c>
+      <c r="W7" s="1">
+        <f t="shared" ref="W7" si="48">ROUND(W6,0)*W3</f>
+        <v>13107.958174502764</v>
+      </c>
+      <c r="X7" s="1">
+        <f t="shared" ref="X7" si="49">ROUND(X6,0)*X3</f>
+        <v>12918.581178526245</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" ref="Y7" si="50">ROUND(Y6,0)*Y3</f>
+        <v>12563.36153033681</v>
+      </c>
+      <c r="Z7" s="1">
+        <f t="shared" ref="Z7" si="51">ROUND(Z6,0)*Z3</f>
+        <v>12043.512688651565</v>
+      </c>
+      <c r="AA7" s="1">
+        <f t="shared" ref="AA7" si="52">ROUND(AA6,0)*AA3</f>
+        <v>11269.580709893205</v>
+      </c>
+      <c r="AB7" s="1">
+        <f t="shared" ref="AB7" si="53">ROUND(AB6,0)*AB3</f>
+        <v>10741.311319451943</v>
+      </c>
+      <c r="AC7" s="1">
+        <f t="shared" ref="AC7" si="54">ROUND(AC6,0)*AC3</f>
+        <v>10233.590093753373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="1">
-        <f>ROUND(B6,0)*B3</f>
-        <v>90</v>
-      </c>
-      <c r="C7" s="1">
-        <f>ROUND(C6,0)*C3</f>
-        <v>220.5</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" ref="C7:M7" si="39">ROUND(D6,0)*D3</f>
-        <v>459.22500000000002</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="39"/>
-        <v>836.65125</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="39"/>
-        <v>1366.4930625</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="39"/>
-        <v>1964.9218781250001</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="39"/>
-        <v>2684.2148451562502</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="39"/>
-        <v>3547.896680320313</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="39"/>
-        <v>4746.5535061441406</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="39"/>
-        <v>6185.9490777648634</v>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" si="39"/>
-        <v>7823.6770849941886</v>
-      </c>
-      <c r="M7" s="1">
-        <f t="shared" si="39"/>
-        <v>9640.6546882473849</v>
-      </c>
-      <c r="N7" s="1">
-        <f t="shared" ref="N7" si="40">ROUND(N6,0)*N3</f>
-        <v>11538.294609711324</v>
-      </c>
-      <c r="O7" s="1">
-        <f t="shared" ref="O7" si="41">ROUND(O6,0)*O3</f>
-        <v>12662.232574370097</v>
-      </c>
-      <c r="P7" s="1">
-        <f t="shared" ref="P7" si="42">ROUND(P6,0)*P3</f>
-        <v>13078.004658466543</v>
-      </c>
-      <c r="Q7" s="1">
-        <f t="shared" ref="Q7" si="43">ROUND(Q6,0)*Q3</f>
-        <v>13175.102096309944</v>
-      </c>
-      <c r="R7" s="1">
-        <f t="shared" ref="R7" si="44">ROUND(R6,0)*R3</f>
-        <v>13128.795943339475</v>
-      </c>
-      <c r="S7" s="1">
-        <f t="shared" ref="S7" si="45">ROUND(S6,0)*S3</f>
-        <v>13107.958174502764</v>
-      </c>
-      <c r="T7" s="1">
-        <f t="shared" ref="T7" si="46">ROUND(T6,0)*T3</f>
-        <v>12918.581178526245</v>
-      </c>
-      <c r="U7" s="1">
-        <f t="shared" ref="U7" si="47">ROUND(U6,0)*U3</f>
-        <v>12563.36153033681</v>
-      </c>
-      <c r="V7" s="1">
-        <f t="shared" ref="V7" si="48">ROUND(V6,0)*V3</f>
-        <v>12043.512688651565</v>
-      </c>
-      <c r="W7" s="1">
-        <f t="shared" ref="W7" si="49">ROUND(W6,0)*W3</f>
-        <v>11269.580709893205</v>
-      </c>
-      <c r="X7" s="1">
-        <f t="shared" ref="X7" si="50">ROUND(X6,0)*X3</f>
-        <v>10741.311319451943</v>
-      </c>
-      <c r="Y7" s="1">
-        <f t="shared" ref="Y7" si="51">ROUND(Y6,0)*Y3</f>
-        <v>10233.590093753373</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
       <c r="B9" s="1">
-        <f>B7+B5</f>
+        <f t="shared" ref="B9:E9" si="55">B7+B5</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <f>F7+F5</f>
         <v>120</v>
       </c>
-      <c r="C9" s="1">
-        <f t="shared" ref="C9:Y9" si="52">C7+C5</f>
+      <c r="G9" s="1">
+        <f t="shared" ref="G9:AC9" si="56">G7+G5</f>
         <v>310.5</v>
       </c>
-      <c r="D9" s="1">
-        <f t="shared" si="52"/>
+      <c r="H9" s="1">
+        <f t="shared" si="56"/>
         <v>624.22500000000002</v>
       </c>
-      <c r="E9" s="1">
-        <f t="shared" si="52"/>
+      <c r="I9" s="1">
+        <f t="shared" si="56"/>
         <v>1151.6512499999999</v>
       </c>
-      <c r="F9" s="1">
-        <f t="shared" si="52"/>
+      <c r="J9" s="1">
+        <f t="shared" si="56"/>
         <v>1876.4930625</v>
       </c>
-      <c r="G9" s="1">
-        <f t="shared" si="52"/>
+      <c r="K9" s="1">
+        <f t="shared" si="56"/>
         <v>2699.9218781250001</v>
       </c>
-      <c r="H9" s="1">
-        <f t="shared" si="52"/>
+      <c r="L9" s="1">
+        <f t="shared" si="56"/>
         <v>3689.2148451562502</v>
       </c>
-      <c r="I9" s="1">
-        <f t="shared" si="52"/>
+      <c r="M9" s="1">
+        <f t="shared" si="56"/>
         <v>4882.896680320313</v>
       </c>
-      <c r="J9" s="1">
-        <f t="shared" si="52"/>
+      <c r="N9" s="1">
+        <f t="shared" si="56"/>
         <v>6531.5535061441406</v>
       </c>
-      <c r="K9" s="1">
-        <f t="shared" si="52"/>
+      <c r="O9" s="1">
+        <f t="shared" si="56"/>
         <v>8510.9490777648643</v>
       </c>
-      <c r="L9" s="1">
-        <f t="shared" si="52"/>
+      <c r="P9" s="1">
+        <f t="shared" si="56"/>
         <v>10763.677084994189</v>
       </c>
-      <c r="M9" s="1">
-        <f t="shared" si="52"/>
+      <c r="Q9" s="1">
+        <f t="shared" si="56"/>
         <v>13255.654688247385</v>
       </c>
-      <c r="N9" s="1">
-        <f t="shared" si="52"/>
+      <c r="R9" s="1">
+        <f t="shared" si="56"/>
         <v>15858.294609711324</v>
       </c>
-      <c r="O9" s="1">
-        <f t="shared" si="52"/>
+      <c r="S9" s="1">
+        <f t="shared" si="56"/>
         <v>17417.232574370097</v>
       </c>
-      <c r="P9" s="1">
-        <f t="shared" si="52"/>
+      <c r="T9" s="1">
+        <f t="shared" si="56"/>
         <v>17983.004658466543</v>
       </c>
-      <c r="Q9" s="1">
-        <f t="shared" si="52"/>
+      <c r="U9" s="1">
+        <f t="shared" si="56"/>
         <v>18110.102096309944</v>
       </c>
-      <c r="R9" s="1">
-        <f t="shared" si="52"/>
+      <c r="V9" s="1">
+        <f t="shared" si="56"/>
         <v>18048.795943339475</v>
       </c>
-      <c r="S9" s="1">
-        <f t="shared" si="52"/>
+      <c r="W9" s="1">
+        <f t="shared" si="56"/>
         <v>18027.958174502764</v>
       </c>
-      <c r="T9" s="1">
-        <f t="shared" si="52"/>
+      <c r="X9" s="1">
+        <f t="shared" si="56"/>
         <v>17763.581178526245</v>
       </c>
-      <c r="U9" s="1">
-        <f t="shared" si="52"/>
+      <c r="Y9" s="1">
+        <f t="shared" si="56"/>
         <v>17273.36153033681</v>
       </c>
-      <c r="V9" s="1">
-        <f t="shared" si="52"/>
+      <c r="Z9" s="1">
+        <f t="shared" si="56"/>
         <v>16558.512688651565</v>
       </c>
-      <c r="W9" s="1">
-        <f t="shared" si="52"/>
+      <c r="AA9" s="1">
+        <f t="shared" si="56"/>
         <v>15499.580709893205</v>
       </c>
-      <c r="X9" s="1">
-        <f t="shared" si="52"/>
+      <c r="AB9" s="1">
+        <f t="shared" si="56"/>
         <v>14776.311319451943</v>
       </c>
-      <c r="Y9" s="1">
-        <f t="shared" si="52"/>
+      <c r="AC9" s="1">
+        <f t="shared" si="56"/>
         <v>14073.590093753373</v>
       </c>
     </row>
@@ -1411,10 +1576,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H7:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1422,54 +1587,59 @@
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>SUM(Inkomsten!B9:M9)</f>
-        <v>54416.737073252145</v>
+        <v>15354.902716101564</v>
       </c>
       <c r="C2" s="4">
-        <f>SUM(Inkomsten!M9:'Inkomsten'!Y9)</f>
-        <v>214645.98026556068</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <f>SUM(Inkomsten!M9:'Inkomsten'!YC9)</f>
+        <v>245335.05661478417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4">
+        <f>Kosten!B22</f>
+        <v>164700</v>
+      </c>
+      <c r="C3" s="4">
+        <f>Kosten!C22</f>
+        <v>78900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="4">
-        <f>Kosten!B9</f>
-        <v>117200</v>
-      </c>
-      <c r="C3" s="4">
-        <f>Kosten!C9</f>
-        <v>77700</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="B4" s="3">
         <f>B2-B3</f>
-        <v>-62783.262926747855</v>
+        <v>-149345.09728389845</v>
       </c>
       <c r="C4" s="3">
         <f>C2-C3</f>
-        <v>136945.98026556068</v>
-      </c>
+        <v>166435.05661478417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" s="4"/>
+      <c r="F5" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Analyse Dossier/Kostenanalyse Groep 20.xlsx
+++ b/Analyse Dossier/Kostenanalyse Groep 20.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\S3\Project\Github folder\Project-Semester-3\Analyse Dossier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elias\Documents\GitHub\Project-Semester-3\Analyse Dossier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -160,9 +160,6 @@
     <t>Werkuren development</t>
   </si>
   <si>
-    <t>Werkuren onderhoud</t>
-  </si>
-  <si>
     <t>Aankopen hardware</t>
   </si>
   <si>
@@ -179,6 +176,9 @@
   </si>
   <si>
     <t>Maand 28</t>
+  </si>
+  <si>
+    <t>Werkuren verdere ontwikeling</t>
   </si>
 </sst>
 </file>
@@ -560,13 +560,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -589,7 +589,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1">
         <v>40000</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1">
         <f>7500</f>
@@ -680,7 +680,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1">
         <v>200</v>
@@ -711,7 +711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:M2"/>
     </sheetView>
   </sheetViews>
@@ -797,16 +797,16 @@
         <v>42</v>
       </c>
       <c r="Z1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" t="s">
         <v>47</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>49</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">

--- a/Analyse Dossier/Kostenanalyse Groep 20.xlsx
+++ b/Analyse Dossier/Kostenanalyse Groep 20.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -160,9 +160,6 @@
     <t>Werkuren development</t>
   </si>
   <si>
-    <t>Werkuren onderhoud</t>
-  </si>
-  <si>
     <t>Aankopen hardware</t>
   </si>
   <si>
@@ -179,6 +176,9 @@
   </si>
   <si>
     <t>Maand 28</t>
+  </si>
+  <si>
+    <t>Werkuren verder onderhoud en uitbreidingen</t>
   </si>
 </sst>
 </file>
@@ -560,13 +560,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -589,7 +589,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1">
         <v>40000</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1">
         <f>7500</f>
@@ -680,7 +680,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1">
         <v>200</v>
@@ -711,7 +711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:M2"/>
     </sheetView>
   </sheetViews>
@@ -797,16 +797,16 @@
         <v>42</v>
       </c>
       <c r="Z1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" t="s">
         <v>47</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>49</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">

--- a/Analyse Dossier/Kostenanalyse Groep 20.xlsx
+++ b/Analyse Dossier/Kostenanalyse Groep 20.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
     <sheet name="Inkomsten" sheetId="2" r:id="rId2"/>
     <sheet name="Som" sheetId="3" r:id="rId3"/>
+    <sheet name="Breakeven calc" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>Kantoorinrichting</t>
   </si>
@@ -179,6 +180,33 @@
   </si>
   <si>
     <t>Maand 28</t>
+  </si>
+  <si>
+    <t>Jaar 1:</t>
+  </si>
+  <si>
+    <t>Jaar 2:</t>
+  </si>
+  <si>
+    <t>Bedrag om break even te zijn in jaar 2:</t>
+  </si>
+  <si>
+    <t>Verdiend in jaar 2:</t>
+  </si>
+  <si>
+    <t>Aantal dagen in jaar 2 om break even te zijn:</t>
+  </si>
+  <si>
+    <t>Conclusie:</t>
+  </si>
+  <si>
+    <t>Na 1 jaar en 328 dagen zullen we break even draaien als we de vooropgestelde playerbase en planning halen.</t>
+  </si>
+  <si>
+    <t>Bruto winst na 2 jaar:</t>
+  </si>
+  <si>
+    <t>De bruto winst na 2 jaar zal 17089,96 bedragen, dit is bruto winst</t>
   </si>
 </sst>
 </file>
@@ -230,11 +258,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -243,8 +272,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Procent" xfId="2" builtinId="5"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Valuta" xfId="1" builtinId="4"/>
   </cellStyles>
@@ -711,7 +742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:M2"/>
     </sheetView>
   </sheetViews>
@@ -1644,4 +1675,95 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <f>Som!B4</f>
+        <v>-149345.09728389845</v>
+      </c>
+      <c r="B2" s="4">
+        <f>Som!C4</f>
+        <v>166435.05661478417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="4">
+        <f>A2</f>
+        <v>-149345.09728389845</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="4">
+        <f>B2</f>
+        <v>166435.05661478417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="8">
+        <f>(1-((D5+D4)/D5))*365</f>
+        <v>327.52090585572466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="4">
+        <f>A2+B2</f>
+        <v>17089.959330885729</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Analyse Dossier/Kostenanalyse Groep 20.xlsx
+++ b/Analyse Dossier/Kostenanalyse Groep 20.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>Kantoorinrichting</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>De bruto winst na 2 jaar zal 17089,96 bedragen, dit is bruto winst</t>
+  </si>
+  <si>
+    <t>Totaal aantal gebruikers</t>
   </si>
 </sst>
 </file>
@@ -290,6 +293,1030 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Inkomsten!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Totaal aantal gebruikers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Inkomsten!$B$1:$AC$1</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>Maand 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Maand 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maand 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Maand 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maand 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maand 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Maand 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Maand 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Maand 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Maand 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Maand 11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Maand 12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Maand 13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Maand 14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Maand 15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Maand 16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Maand 17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Maand 18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Maand 19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Maand 20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Maand 21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Maand 22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Maand 23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Maand 24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Maand 25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Maand 26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Maand 27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Maand 28</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Inkomsten!$B$11:$AC$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>53500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61600</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>69600</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>77600</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>85400</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>92900</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>106500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>112800</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>118800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-55AA-48EB-9C6E-737C85B30600}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="434458368"/>
+        <c:axId val="434456400"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="434458368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434456400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="434456400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434458368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -740,10 +1767,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:M2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" activeCellId="1" sqref="A1:XFD1 A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1599,9 +2626,127 @@
         <v>14073.590093753373</v>
       </c>
     </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11">
+        <f>SUM($B$2:B2)</f>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f>SUM($B$2:C2)</f>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f>SUM($B$2:D2)</f>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>SUM($B$2:E2)</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>SUM($B$2:F2)</f>
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <f>SUM($B$2:G2)</f>
+        <v>300</v>
+      </c>
+      <c r="H11">
+        <f>SUM($B$2:H2)</f>
+        <v>700</v>
+      </c>
+      <c r="I11">
+        <f>SUM($B$2:I2)</f>
+        <v>1400</v>
+      </c>
+      <c r="J11">
+        <f>SUM($B$2:J2)</f>
+        <v>2500</v>
+      </c>
+      <c r="K11">
+        <f>SUM($B$2:K2)</f>
+        <v>4000</v>
+      </c>
+      <c r="L11">
+        <f>SUM($B$2:L2)</f>
+        <v>6000</v>
+      </c>
+      <c r="M11">
+        <f>SUM($B$2:M2)</f>
+        <v>8600</v>
+      </c>
+      <c r="N11">
+        <f>SUM($B$2:N2)</f>
+        <v>12100</v>
+      </c>
+      <c r="O11">
+        <f>SUM($B$2:O2)</f>
+        <v>16600</v>
+      </c>
+      <c r="P11">
+        <f>SUM($B$2:P2)</f>
+        <v>22200</v>
+      </c>
+      <c r="Q11">
+        <f>SUM($B$2:Q2)</f>
+        <v>29000</v>
+      </c>
+      <c r="R11">
+        <f>SUM($B$2:R2)</f>
+        <v>37000</v>
+      </c>
+      <c r="S11">
+        <f>SUM($B$2:S2)</f>
+        <v>45300</v>
+      </c>
+      <c r="T11">
+        <f>SUM($B$2:T2)</f>
+        <v>53500</v>
+      </c>
+      <c r="U11">
+        <f>SUM($B$2:U2)</f>
+        <v>61600</v>
+      </c>
+      <c r="V11">
+        <f>SUM($B$2:V2)</f>
+        <v>69600</v>
+      </c>
+      <c r="W11">
+        <f>SUM($B$2:W2)</f>
+        <v>77600</v>
+      </c>
+      <c r="X11">
+        <f>SUM($B$2:X2)</f>
+        <v>85400</v>
+      </c>
+      <c r="Y11">
+        <f>SUM($B$2:Y2)</f>
+        <v>92900</v>
+      </c>
+      <c r="Z11">
+        <f>SUM($B$2:Z2)</f>
+        <v>100000</v>
+      </c>
+      <c r="AA11">
+        <f>SUM($B$2:AA2)</f>
+        <v>106500</v>
+      </c>
+      <c r="AB11">
+        <f>SUM($B$2:AB2)</f>
+        <v>112800</v>
+      </c>
+      <c r="AC11">
+        <f>SUM($B$2:AC2)</f>
+        <v>118800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1682,7 +2827,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
